--- a/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>ONCR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,8 +711,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,26 +823,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E12" s="3">
         <v>6900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -840,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,26 +962,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E17" s="3">
         <v>8900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14400</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,8 +992,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,17 +1004,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,17 +1050,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,8 +1070,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1046,17 +1082,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,26 +1134,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14300</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,26 +1230,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14300</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,26 +1262,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-22400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1240,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,17 +1434,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,26 +1454,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-22400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14300</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,26 +1518,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-22400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14300</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,31 +1550,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,20 +1617,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E41" s="3">
         <v>54000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1679,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,20 +1743,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,20 +1775,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E46" s="3">
         <v>55600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30600</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,20 +1839,23 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1871,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,20 +1967,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2031,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E54" s="3">
         <v>62100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35800</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,20 +2093,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,20 +2155,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,20 +2187,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,20 +2251,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3900</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2379,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,20 +2489,23 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>173900</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>122100</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2553,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-129800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-118300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-96300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2681,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-118300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-96300</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2745,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,26 +2782,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-22400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14300</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2620,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2642,17 +2840,17 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,26 +3020,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,26 +3068,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2878,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,26 +3162,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,25 +3336,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E100" s="3">
         <v>35400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>53400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3123,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,26 +3400,29 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E102" s="3">
         <v>25100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>ONCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,8 +715,11 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,8 +750,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +785,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,29 +837,30 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E12" s="3">
         <v>7600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,29 +989,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
         <v>11600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14400</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1022,11 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1004,20 +1034,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1074,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1050,20 +1084,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-10600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,8 +1107,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1082,20 +1119,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,29 +1177,32 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14300</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1169,8 +1212,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,29 +1282,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14300</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,29 +1317,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1492,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1434,20 +1504,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>10600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1457,29 +1527,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14300</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,29 +1597,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14300</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,34 +1632,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,23 +1704,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>172600</v>
+      </c>
+      <c r="E41" s="3">
         <v>130300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>54000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,8 +1772,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,8 +1807,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,23 +1842,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,23 +1877,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>175500</v>
+      </c>
+      <c r="E46" s="3">
         <v>133400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>55600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1912,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,23 +1947,26 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E48" s="3">
         <v>45500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1982,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2087,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1979,14 +2099,14 @@
         <v>3300</v>
       </c>
       <c r="E52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,23 +2157,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>225100</v>
+      </c>
+      <c r="E54" s="3">
         <v>182300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>62100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,23 +2224,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2257,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,23 +2292,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>4700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,23 +2327,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,8 +2362,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,23 +2397,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E62" s="3">
         <v>41600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,23 +2537,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E66" s="3">
         <v>47600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2501,14 +2669,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>173900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>122100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,23 +2727,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-129800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-118300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-96300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,23 +2867,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>176300</v>
+      </c>
+      <c r="E76" s="3">
         <v>134700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-118300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-96300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,34 +2937,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,29 +2977,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14300</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3029,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2843,17 +3042,17 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,29 +3237,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,29 +3289,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,29 +3392,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,28 +3582,31 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E100" s="3">
         <v>90400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>35400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>53400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3371,8 +3617,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,29 +3652,32 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E102" s="3">
         <v>79200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>ONCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,8 +719,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +757,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +795,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,32 +851,33 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E12" s="3">
         <v>8400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,32 +1016,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14400</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1052,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,23 +1064,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-31200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14400</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1108,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1087,20 +1121,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-10600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,8 +1144,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1119,23 +1156,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,32 +1220,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14300</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,8 +1258,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,32 +1334,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14300</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,32 +1372,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-35000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1562,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1507,20 +1577,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>10600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,32 +1600,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-35000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14300</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1565,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,32 +1676,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-35000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14300</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1635,37 +1714,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1791,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>159900</v>
+      </c>
+      <c r="E41" s="3">
         <v>172600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>130300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1865,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1903,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,26 +1941,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,26 +1979,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E46" s="3">
         <v>175500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>133400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>55600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30600</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,26 +2055,29 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E48" s="3">
         <v>46200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,26 +2207,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
         <v>3300</v>
       </c>
       <c r="F52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2283,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>215600</v>
+      </c>
+      <c r="E54" s="3">
         <v>225100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>182300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2355,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,8 +2391,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,26 +2429,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2467,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
         <v>6800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2505,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,26 +2543,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E62" s="3">
         <v>42100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>41600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2695,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E66" s="3">
         <v>48900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>47600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2672,14 +2840,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>173900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>122100</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +2901,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-142500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-129800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-118300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-96300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3053,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E76" s="3">
         <v>176300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>134700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-118300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-96300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,37 +3129,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,32 +3172,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-35000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14300</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3045,17 +3244,17 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,32 +3454,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,32 +3510,33 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,32 +3622,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,31 +3828,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>53100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>90400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>35400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>53400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3620,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,32 +3904,35 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E102" s="3">
         <v>42300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>79200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3688,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>ONCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,8 +723,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,8 +764,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,35 +865,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E12" s="3">
         <v>10700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6900</v>
       </c>
-      <c r="H12" s="3">
-        <v>12600</v>
-      </c>
       <c r="I12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J12" s="3">
         <v>24000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E17" s="3">
         <v>15500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
-        <v>16700</v>
-      </c>
       <c r="I17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J17" s="3">
         <v>31200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,8 +1082,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,26 +1094,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8900</v>
       </c>
-      <c r="H18" s="3">
-        <v>-16700</v>
-      </c>
       <c r="I18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="J18" s="3">
         <v>-31200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1142,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1124,20 +1158,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-10600</v>
       </c>
-      <c r="H20" s="3">
-        <v>-500</v>
-      </c>
       <c r="I20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,8 +1181,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1156,26 +1193,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19200</v>
       </c>
-      <c r="H21" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-29600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,35 +1263,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-17200</v>
-      </c>
       <c r="I23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-30700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,8 +1304,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-17200</v>
-      </c>
       <c r="I26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-30700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-22700</v>
-      </c>
       <c r="I27" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-35000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1632,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1580,20 +1650,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>10600</v>
       </c>
-      <c r="H32" s="3">
-        <v>500</v>
-      </c>
       <c r="I32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-22700</v>
-      </c>
       <c r="I33" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-35000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-22700</v>
-      </c>
       <c r="I35" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-35000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>145600</v>
+      </c>
+      <c r="E41" s="3">
         <v>159900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>172600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>130300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,8 +1958,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,29 +2040,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E46" s="3">
         <v>162700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>175500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>133400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>55600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,29 +2163,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E48" s="3">
         <v>49400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>46200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2219,20 +2339,20 @@
         <v>3500</v>
       </c>
       <c r="E52" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="F52" s="3">
         <v>3300</v>
       </c>
       <c r="G52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>202700</v>
+      </c>
+      <c r="E54" s="3">
         <v>215600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>225100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>182300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2486,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2432,29 +2566,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E59" s="3">
         <v>8800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2607,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,29 +2689,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E62" s="3">
         <v>42200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>41600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E66" s="3">
         <v>53000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>48900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2843,14 +3011,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>173900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>122100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3075,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-174700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-158000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-142500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-129800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-118300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-96300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E76" s="3">
         <v>162600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>176300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>134700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-118300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-96300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-22700</v>
-      </c>
       <c r="I81" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-35000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,13 +3427,14 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -3247,17 +3446,17 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>600</v>
-      </c>
-      <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3671,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10000</v>
       </c>
-      <c r="H89" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>-27200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,35 +3731,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,35 +3852,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,34 +4074,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>53100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>90400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>35400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>53400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,35 +4156,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>42300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>79200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25100</v>
       </c>
-      <c r="H102" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>25200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>ONCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,58 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,8 +726,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,8 +770,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,38 +878,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E12" s="3">
         <v>11300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6900</v>
       </c>
       <c r="I12" s="3">
         <v>6900</v>
       </c>
       <c r="J12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K12" s="3">
         <v>24000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,38 +1069,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E17" s="3">
         <v>16700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>8900</v>
       </c>
       <c r="I17" s="3">
         <v>8900</v>
       </c>
       <c r="J17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K17" s="3">
         <v>31200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,8 +1111,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,29 +1123,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-15500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-8900</v>
       </c>
       <c r="I18" s="3">
         <v>-8900</v>
       </c>
       <c r="J18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-31200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1161,20 +1194,20 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-10600</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-10600</v>
       </c>
       <c r="J20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1217,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,29 +1229,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-15100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-29600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,38 +1305,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-19500</v>
       </c>
       <c r="I23" s="3">
         <v>-19500</v>
       </c>
       <c r="J23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-30700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,8 +1349,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,38 +1437,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-19500</v>
       </c>
       <c r="I26" s="3">
         <v>-19500</v>
       </c>
       <c r="J26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-30700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,38 +1481,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-22400</v>
       </c>
       <c r="I27" s="3">
         <v>-22400</v>
       </c>
       <c r="J27" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-35000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1653,20 +1722,20 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>10600</v>
       </c>
       <c r="J32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,38 +1745,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-22400</v>
       </c>
       <c r="I33" s="3">
         <v>-22400</v>
       </c>
       <c r="J33" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-35000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,38 +1833,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-22400</v>
       </c>
       <c r="I35" s="3">
         <v>-22400</v>
       </c>
       <c r="J35" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-35000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,32 +1964,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E41" s="3">
         <v>145600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>159900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>172600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>130300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,31 +2006,34 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>23200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1961,8 +2050,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2002,8 +2094,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,32 +2138,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,32 +2182,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E46" s="3">
         <v>147700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>162700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>175500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>133400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>55600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,32 +2270,35 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E48" s="3">
         <v>51500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>49400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,8 +2314,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,32 +2446,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="E52" s="3">
         <v>3500</v>
       </c>
       <c r="F52" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="G52" s="3">
         <v>3300</v>
       </c>
       <c r="H52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,32 +2534,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>201600</v>
+      </c>
+      <c r="E54" s="3">
         <v>202700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>215600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>225100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>182300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>62100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,32 +2616,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,32 +2702,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E59" s="3">
         <v>10900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2746,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,32 +2834,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E62" s="3">
         <v>42600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,32 +3010,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E66" s="3">
         <v>54900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>48900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>47600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,14 +3181,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>173900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>122100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3248,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-194600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-174700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-158000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-142500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-129800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-118300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-96300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,32 +3424,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E76" s="3">
         <v>147800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>162600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>176300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>134700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-118300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-96300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,38 +3561,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-22400</v>
       </c>
       <c r="I81" s="3">
         <v>-22400</v>
       </c>
       <c r="J81" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-35000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,16 +3625,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -3448,18 +3646,18 @@
       <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,38 +3887,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-27200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,38 +3951,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,38 +4081,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,37 +4319,40 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>53100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>90400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>35400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>53400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4118,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,38 +4407,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>42300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>79200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>25200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>ONCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,8 +730,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,8 +777,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,41 +892,42 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E12" s="3">
         <v>14300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6900</v>
       </c>
       <c r="J12" s="3">
         <v>6900</v>
       </c>
       <c r="K12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L12" s="3">
         <v>24000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,41 +1096,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E17" s="3">
         <v>19900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>8900</v>
       </c>
       <c r="J17" s="3">
         <v>8900</v>
       </c>
       <c r="K17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="L17" s="3">
         <v>31200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,8 +1141,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,32 +1153,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-8900</v>
       </c>
       <c r="J18" s="3">
         <v>-8900</v>
       </c>
       <c r="K18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="L18" s="3">
         <v>-31200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1197,20 +1231,20 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-10600</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-10600</v>
       </c>
       <c r="K20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,8 +1254,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1229,32 +1266,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-29600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1301,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,41 +1348,44 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-19500</v>
       </c>
       <c r="J23" s="3">
         <v>-19500</v>
       </c>
       <c r="K23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="L23" s="3">
         <v>-30700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1395,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,41 +1489,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-19500</v>
       </c>
       <c r="J26" s="3">
         <v>-19500</v>
       </c>
       <c r="K26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="L26" s="3">
         <v>-30700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,41 +1536,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-22400</v>
       </c>
       <c r="J27" s="3">
         <v>-22400</v>
       </c>
       <c r="K27" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-35000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1725,20 +1795,20 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>10600</v>
       </c>
       <c r="K32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,41 +1818,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-22400</v>
       </c>
       <c r="J33" s="3">
         <v>-22400</v>
       </c>
       <c r="K33" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-35000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,41 +1912,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-22400</v>
       </c>
       <c r="J35" s="3">
         <v>-22400</v>
       </c>
       <c r="K35" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-35000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,46 +1959,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,35 +2051,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E41" s="3">
         <v>100800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>145600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>159900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>172600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>130300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,16 +2096,19 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>23200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+      <c r="E42" s="3">
+        <v>23200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -2035,8 +2125,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2053,8 +2143,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,35 +2237,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,35 +2284,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E46" s="3">
         <v>129100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>147700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>162700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>175500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>133400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>55600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,35 +2378,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E48" s="3">
         <v>68500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>51500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>49400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>46200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>45500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,35 +2566,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3500</v>
       </c>
       <c r="F52" s="3">
         <v>3500</v>
       </c>
       <c r="G52" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="H52" s="3">
         <v>3300</v>
       </c>
       <c r="I52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,35 +2660,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>176600</v>
+      </c>
+      <c r="E54" s="3">
         <v>201600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>202700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>215600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>225100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>182300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>62100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,35 +2747,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>13000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2705,35 +2839,38 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E59" s="3">
         <v>8000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,35 +2886,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E60" s="3">
         <v>21000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,35 +2980,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E62" s="3">
         <v>50600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>41600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,35 +3168,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E66" s="3">
         <v>71600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>48900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>47600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3184,14 +3352,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>173900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>122100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,35 +3422,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-212400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-194600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-174700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-158000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-142500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-129800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-118300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-96300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,35 +3610,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E76" s="3">
         <v>130000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>147800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>162600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>176300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>134700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-118300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-96300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3704,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,41 +3756,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-22400</v>
       </c>
       <c r="J81" s="3">
         <v>-22400</v>
       </c>
       <c r="K81" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-35000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3635,10 +3834,10 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -3649,18 +3848,18 @@
       <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,41 +4104,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-27200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,41 +4172,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,41 +4311,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,40 +4565,43 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>53100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>90400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>35400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>53400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,41 +4659,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-44300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>42300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>79200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>25200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>ONCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,8 +734,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,8 +784,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,35 +916,35 @@
         <v>12500</v>
       </c>
       <c r="E12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F12" s="3">
         <v>14300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6900</v>
       </c>
       <c r="K12" s="3">
         <v>6900</v>
       </c>
       <c r="L12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M12" s="3">
         <v>24000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1123,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E17" s="3">
         <v>17800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>8900</v>
       </c>
       <c r="K17" s="3">
         <v>8900</v>
       </c>
       <c r="L17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M17" s="3">
         <v>31200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1171,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,35 +1183,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-19900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-8900</v>
       </c>
       <c r="K18" s="3">
         <v>-8900</v>
       </c>
       <c r="L18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="M18" s="3">
         <v>-31200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1243,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1234,20 +1268,20 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-10600</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-10600</v>
       </c>
       <c r="L20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1291,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,35 +1303,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-29600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,44 +1391,47 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-19500</v>
       </c>
       <c r="K23" s="3">
         <v>-19500</v>
       </c>
       <c r="L23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-30700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,8 +1441,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1541,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-19500</v>
       </c>
       <c r="K26" s="3">
         <v>-19500</v>
       </c>
       <c r="L26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-30700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,44 +1591,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-22400</v>
       </c>
       <c r="K27" s="3">
         <v>-22400</v>
       </c>
       <c r="L27" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-35000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,8 +1841,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1798,20 +1868,20 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>10600</v>
       </c>
       <c r="L32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,44 +1891,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-22400</v>
       </c>
       <c r="K33" s="3">
         <v>-22400</v>
       </c>
       <c r="L33" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-35000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +1991,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-22400</v>
       </c>
       <c r="K35" s="3">
         <v>-22400</v>
       </c>
       <c r="L35" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-35000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2138,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E41" s="3">
         <v>75500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>145600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>159900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>172600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>130300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,19 +2186,22 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23200</v>
+        <v>15400</v>
       </c>
       <c r="E42" s="3">
         <v>23200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="F42" s="3">
+        <v>23200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -2128,8 +2218,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2146,8 +2236,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2193,8 +2286,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,38 +2336,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2386,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E46" s="3">
         <v>102600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>129100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>147700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>162700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>175500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>133400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>55600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2381,38 +2486,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E48" s="3">
         <v>69700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>68500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>51500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>49400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>45500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,38 +2686,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E52" s="3">
         <v>4300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3500</v>
       </c>
       <c r="G52" s="3">
         <v>3500</v>
       </c>
       <c r="H52" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="I52" s="3">
         <v>3300</v>
       </c>
       <c r="J52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2786,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>182500</v>
+      </c>
+      <c r="E54" s="3">
         <v>176600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>201600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>202700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>215600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>225100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>182300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>62100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,38 +2878,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2842,38 +2976,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E59" s="3">
         <v>8600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,38 +3026,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,13 +3076,16 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2983,38 +3126,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E62" s="3">
         <v>50200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3326,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E66" s="3">
         <v>62300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>71600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>48900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3355,14 +3523,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>173900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>122100</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3596,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-231500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-212400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-194600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-174700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-158000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-142500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-129800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-118300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-96300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3796,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E76" s="3">
         <v>114300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>130000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>147800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>162600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>176300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>134700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-118300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-96300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,44 +3951,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-22400</v>
       </c>
       <c r="K81" s="3">
         <v>-22400</v>
       </c>
       <c r="L81" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-35000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3837,10 +4036,10 @@
         <v>600</v>
       </c>
       <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -3851,18 +4050,18 @@
       <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,44 +4321,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-27200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,44 +4393,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,44 +4541,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,43 +4811,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>53100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>90400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>35400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>53400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,44 +4911,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-44300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>42300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>79200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>25200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>ONCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,8 +738,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,8 +791,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,47 +920,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12500</v>
+        <v>14100</v>
       </c>
       <c r="E12" s="3">
         <v>12500</v>
       </c>
       <c r="F12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G12" s="3">
         <v>14300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6900</v>
       </c>
       <c r="L12" s="3">
         <v>6900</v>
       </c>
       <c r="M12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N12" s="3">
         <v>24000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,47 +1150,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E17" s="3">
         <v>18600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>8900</v>
       </c>
       <c r="L17" s="3">
         <v>8900</v>
       </c>
       <c r="M17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="N17" s="3">
         <v>31200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1201,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1183,38 +1213,38 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-8900</v>
       </c>
       <c r="L18" s="3">
         <v>-8900</v>
       </c>
       <c r="M18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="N18" s="3">
         <v>-31200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1271,20 +1305,20 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-10600</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-10600</v>
       </c>
       <c r="M20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,8 +1328,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,38 +1340,38 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-17200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-29600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,8 +1381,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,47 +1434,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-19500</v>
       </c>
       <c r="L23" s="3">
         <v>-19500</v>
       </c>
       <c r="M23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-30700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1487,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,47 +1593,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-19500</v>
       </c>
       <c r="L26" s="3">
         <v>-19500</v>
       </c>
       <c r="M26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-30700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1594,47 +1646,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-22400</v>
       </c>
       <c r="L27" s="3">
         <v>-22400</v>
       </c>
       <c r="M27" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-35000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1853,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1871,20 +1941,20 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>10600</v>
       </c>
       <c r="M32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,47 +1964,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-22400</v>
       </c>
       <c r="L33" s="3">
         <v>-22400</v>
       </c>
       <c r="M33" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-35000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,47 +2070,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-22400</v>
       </c>
       <c r="L35" s="3">
         <v>-22400</v>
       </c>
       <c r="M35" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-35000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,52 +2123,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2181,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E41" s="3">
         <v>84800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>145600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>159900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>172600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>130300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,22 +2276,25 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E42" s="3">
         <v>15400</v>
-      </c>
-      <c r="E42" s="3">
-        <v>23200</v>
       </c>
       <c r="F42" s="3">
         <v>23200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>23200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -2221,8 +2311,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2239,8 +2329,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,41 +2435,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2488,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E46" s="3">
         <v>102800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>129100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>147700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>162700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>175500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>133400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,41 +2594,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E48" s="3">
         <v>75400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>69700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>68500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>51500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>49400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>45500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2806,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3500</v>
       </c>
       <c r="H52" s="3">
         <v>3500</v>
       </c>
       <c r="I52" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J52" s="3">
         <v>3300</v>
       </c>
       <c r="K52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2912,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>164400</v>
+      </c>
+      <c r="E54" s="3">
         <v>182500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>176600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>201600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>202700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>215600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>225100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>182300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,41 +3009,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,41 +3113,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E59" s="3">
         <v>8900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3166,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E60" s="3">
         <v>16000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,17 +3219,20 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E61" s="3">
         <v>19100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3129,41 +3272,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E62" s="3">
         <v>49400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3484,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E66" s="3">
         <v>84500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>48900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3526,14 +3694,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>173900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>122100</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3770,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-251100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-231500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-212400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-194600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-174700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-158000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-142500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-129800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-118300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-96300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3982,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E76" s="3">
         <v>98000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>114300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>130000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>147800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>162600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>176300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>134700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-118300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-96300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4088,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,47 +4146,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-22400</v>
       </c>
       <c r="L81" s="3">
         <v>-22400</v>
       </c>
       <c r="M81" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-35000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,13 +4222,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
@@ -4039,10 +4238,10 @@
         <v>600</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -4053,18 +4252,18 @@
       <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,47 +4538,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>-27200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,47 +4614,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,47 +4771,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E94" s="3">
         <v>3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,46 +5057,49 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>19600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>53100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>90400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>35400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>53400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,47 +5163,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E102" s="3">
         <v>9300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-44300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>42300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>79200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>25200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>ONCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,73 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -741,8 +741,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,8 +797,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,50 +933,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E12" s="3">
         <v>14100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>12500</v>
       </c>
       <c r="F12" s="3">
         <v>12500</v>
       </c>
       <c r="G12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H12" s="3">
         <v>14300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>6900</v>
       </c>
       <c r="M12" s="3">
         <v>6900</v>
       </c>
       <c r="N12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O12" s="3">
         <v>24000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,50 +1176,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E17" s="3">
         <v>19300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>8900</v>
       </c>
       <c r="M17" s="3">
         <v>8900</v>
       </c>
       <c r="N17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O17" s="3">
         <v>31200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1204,8 +1230,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,41 +1242,41 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-8900</v>
       </c>
       <c r="M18" s="3">
         <v>-8900</v>
       </c>
       <c r="N18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="O18" s="3">
         <v>-31200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1310,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1287,11 +1320,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1308,20 +1341,20 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-10600</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-10600</v>
       </c>
       <c r="N20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1331,8 +1364,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1340,41 +1376,41 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-18500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-29600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-13700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,8 +1420,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,50 +1476,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-19500</v>
       </c>
       <c r="M23" s="3">
         <v>-19500</v>
       </c>
       <c r="N23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-30700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,8 +1532,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,50 +1644,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-19500</v>
       </c>
       <c r="M26" s="3">
         <v>-19500</v>
       </c>
       <c r="N26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-30700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,50 +1700,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-22400</v>
       </c>
       <c r="M27" s="3">
         <v>-22400</v>
       </c>
       <c r="N27" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-35000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,8 +1980,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1923,11 +1992,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1944,20 +2013,20 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>10600</v>
       </c>
       <c r="N32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1967,50 +2036,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-22400</v>
       </c>
       <c r="M33" s="3">
         <v>-22400</v>
       </c>
       <c r="N33" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-35000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,50 +2148,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-22400</v>
       </c>
       <c r="M35" s="3">
         <v>-22400</v>
       </c>
       <c r="N35" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-35000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2184,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,44 +2311,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E41" s="3">
         <v>41600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>75500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>145600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>159900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>172600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>130300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,25 +2365,28 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E42" s="3">
         <v>40000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15400</v>
-      </c>
-      <c r="F42" s="3">
-        <v>23200</v>
       </c>
       <c r="G42" s="3">
         <v>23200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>23200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -2314,8 +2403,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2332,8 +2421,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2385,8 +2477,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,44 +2533,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,44 +2589,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E46" s="3">
         <v>83500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>129100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>147700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>162700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>175500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>133400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>55600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2645,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,8 +2701,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2606,35 +2713,35 @@
         <v>76900</v>
       </c>
       <c r="E48" s="3">
+        <v>76900</v>
+      </c>
+      <c r="F48" s="3">
         <v>75400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>69700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>68500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>51500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>49400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>46200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2757,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,8 +2925,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2818,35 +2937,35 @@
         <v>4000</v>
       </c>
       <c r="E52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F52" s="3">
         <v>4400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3500</v>
       </c>
       <c r="I52" s="3">
         <v>3500</v>
       </c>
       <c r="J52" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="K52" s="3">
         <v>3300</v>
       </c>
       <c r="L52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,44 +3037,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>145600</v>
+      </c>
+      <c r="E54" s="3">
         <v>164400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>182500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>176600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>201600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>202700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>215600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>225100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>182300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>62100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,44 +3139,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,31 +3193,34 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>19400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3116,44 +3249,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E59" s="3">
         <v>14800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,44 +3305,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E60" s="3">
         <v>16800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,20 +3361,23 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>19300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3275,44 +3417,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E62" s="3">
         <v>48300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>42100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,44 +3641,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E66" s="3">
         <v>84400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>84500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>48900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3697,14 +3864,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>173900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>122100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,44 +3943,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-251100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-231500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-212400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-194600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-174700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-158000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-142500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-129800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-118300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-96300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,44 +4167,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E76" s="3">
         <v>80000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>98000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>114300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>130000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>147800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>162600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>176300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>134700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-118300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-96300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4149,50 +4340,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-22400</v>
       </c>
       <c r="M81" s="3">
         <v>-22400</v>
       </c>
       <c r="N81" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-35000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4202,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,16 +4420,17 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>600</v>
@@ -4241,10 +4439,10 @@
         <v>600</v>
       </c>
       <c r="H83" s="3">
+        <v>600</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -4255,18 +4453,18 @@
       <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4276,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,50 +4754,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>-27200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,50 +4834,51 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,50 +5000,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,8 +5302,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5069,40 +5314,40 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>19600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>53100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>90400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>35400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>53400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5113,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,50 +5414,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-43200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-44300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>42300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>79200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>25200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5217,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>ONCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,8 +745,11 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,8 +804,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,8 +863,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,53 +947,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E12" s="3">
         <v>15700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>12500</v>
       </c>
       <c r="G12" s="3">
         <v>12500</v>
       </c>
       <c r="H12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I12" s="3">
         <v>14300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>6900</v>
       </c>
       <c r="N12" s="3">
         <v>6900</v>
       </c>
       <c r="O12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="P12" s="3">
         <v>24000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,31 +1063,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>14600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,53 +1203,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E17" s="3">
         <v>20800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>8900</v>
       </c>
       <c r="N17" s="3">
         <v>8900</v>
       </c>
       <c r="O17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="P17" s="3">
         <v>31200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14400</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,8 +1260,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,44 +1272,44 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-19300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-8900</v>
       </c>
       <c r="N18" s="3">
         <v>-8900</v>
       </c>
       <c r="O18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="P18" s="3">
         <v>-31200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,8 +1344,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1320,14 +1354,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1344,20 +1378,20 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-10600</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-10600</v>
       </c>
       <c r="O20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,8 +1401,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1376,44 +1413,44 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-18800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-29600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,8 +1460,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1479,53 +1519,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-19500</v>
       </c>
       <c r="N23" s="3">
         <v>-19500</v>
       </c>
       <c r="O23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-30700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,8 +1578,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,53 +1696,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-19500</v>
       </c>
       <c r="N26" s="3">
         <v>-19500</v>
       </c>
       <c r="O26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-30700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,53 +1755,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-22400</v>
       </c>
       <c r="N27" s="3">
         <v>-22400</v>
       </c>
       <c r="O27" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-35000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2050,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1992,14 +2062,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2016,20 +2086,20 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>10600</v>
       </c>
       <c r="O32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,53 +2109,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-22400</v>
       </c>
       <c r="N33" s="3">
         <v>-22400</v>
       </c>
       <c r="O33" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="P33" s="3">
         <v>-35000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,53 +2227,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-22400</v>
       </c>
       <c r="N35" s="3">
         <v>-22400</v>
       </c>
       <c r="O35" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="P35" s="3">
         <v>-35000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,47 +2398,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E41" s="3">
         <v>25700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>75500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>145600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>159900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>172600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>130300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,28 +2455,31 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E42" s="3">
         <v>36500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>40000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15400</v>
-      </c>
-      <c r="G42" s="3">
-        <v>23200</v>
       </c>
       <c r="H42" s="3">
         <v>23200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="I42" s="3">
+        <v>23200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -2406,8 +2496,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2424,8 +2514,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2480,8 +2573,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,47 +2632,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,47 +2691,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E46" s="3">
         <v>64600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>83500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>129100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>147700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>162700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>175500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>133400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>55600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2750,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2704,47 +2809,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>76900</v>
+        <v>59100</v>
       </c>
       <c r="E48" s="3">
         <v>76900</v>
       </c>
       <c r="F48" s="3">
+        <v>76900</v>
+      </c>
+      <c r="G48" s="3">
         <v>75400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>69700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>68500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>51500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>49400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,8 +2868,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,8 +3045,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2940,35 +3060,35 @@
         <v>4000</v>
       </c>
       <c r="F52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3500</v>
       </c>
       <c r="J52" s="3">
         <v>3500</v>
       </c>
       <c r="K52" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="L52" s="3">
         <v>3300</v>
       </c>
       <c r="M52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,47 +3163,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E54" s="3">
         <v>145600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>164400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>182500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>176600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>201600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>202700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>215600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>225100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>182300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>62100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,47 +3270,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,17 +3327,20 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E58" s="3">
         <v>19400</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,8 +3356,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3252,47 +3386,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E59" s="3">
         <v>12100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,47 +3445,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E60" s="3">
         <v>37200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,8 +3504,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3373,14 +3516,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>19300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3420,47 +3563,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E62" s="3">
         <v>47900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>48300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>49400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>42200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,47 +3799,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E66" s="3">
         <v>85100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>84400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>84500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>53000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3867,14 +4035,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>173900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>122100</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,47 +4117,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-302900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-272000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-251100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-231500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-212400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-194600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-174700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-158000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-142500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-129800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-118300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-96300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,47 +4353,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E76" s="3">
         <v>60500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>80000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>114300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>130000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>147800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>162600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>176300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>134700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-118300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-96300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,53 +4535,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-22400</v>
       </c>
       <c r="N81" s="3">
         <v>-22400</v>
       </c>
       <c r="O81" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="P81" s="3">
         <v>-35000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,19 +4619,20 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>600</v>
@@ -4442,10 +4641,10 @@
         <v>600</v>
       </c>
       <c r="I83" s="3">
+        <v>600</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -4456,18 +4655,18 @@
       <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,53 +4971,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
         <v>-27200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,53 +5055,54 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,53 +5230,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,8 +5548,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5317,40 +5563,40 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>19600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>53100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>90400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>35400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>53400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5361,8 +5607,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,53 +5666,56 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-43200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>42300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>79200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>25200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
